--- a/PRV File.xlsx
+++ b/PRV File.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Landmark\Scripts\UPL Bin Details\PRV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsdm.inbound\OneDrive - Landmark Group\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF10F9BF-B4E9-4803-84ED-64161FBCA94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDE66AD-2EAC-4449-9B15-482ACC925045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{213F64BB-295B-460C-B1A4-7BBCBA9C2E35}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{213F64BB-295B-460C-B1A4-7BBCBA9C2E35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,15 +413,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13102E35-9E89-41F8-8B36-32B8759397FF}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,44 +432,1412 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>123</v>
+        <v>165141147</v>
       </c>
       <c r="B2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>234</v>
+        <v>167289701</v>
       </c>
       <c r="B3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>456</v>
+        <v>165141148</v>
       </c>
       <c r="B4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>764</v>
+        <v>168741803</v>
       </c>
       <c r="B5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>356</v>
+        <v>168741802</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>167857926</v>
+      </c>
+      <c r="B7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>167857917</v>
+      </c>
+      <c r="B8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>167857927</v>
+      </c>
+      <c r="B9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>167289678</v>
+      </c>
+      <c r="B10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>167426574</v>
+      </c>
+      <c r="B11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>167426575</v>
+      </c>
+      <c r="B12">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>167426576</v>
+      </c>
+      <c r="B13">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>168045207</v>
+      </c>
+      <c r="B14">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>167857929</v>
+      </c>
+      <c r="B15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>167857930</v>
+      </c>
+      <c r="B16">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>167289700</v>
+      </c>
+      <c r="B17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>168741804</v>
+      </c>
+      <c r="B18">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>168741805</v>
+      </c>
+      <c r="B19">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>166429655</v>
+      </c>
+      <c r="B20">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>168375372</v>
+      </c>
+      <c r="B21">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>164372672</v>
+      </c>
+      <c r="B22">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>166429656</v>
+      </c>
+      <c r="B23">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>164548674</v>
+      </c>
+      <c r="B24">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>168771174</v>
+      </c>
+      <c r="B25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>168375373</v>
+      </c>
+      <c r="B26">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>168375375</v>
+      </c>
+      <c r="B27">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>164548743</v>
+      </c>
+      <c r="B28">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>168375374</v>
+      </c>
+      <c r="B29">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>168466107</v>
+      </c>
+      <c r="B30">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>167084048</v>
+      </c>
+      <c r="B31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>167084045</v>
+      </c>
+      <c r="B32">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>167084046</v>
+      </c>
+      <c r="B33">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>167017663</v>
+      </c>
+      <c r="B34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>167017664</v>
+      </c>
+      <c r="B35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>167084038</v>
+      </c>
+      <c r="B36">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>167108458</v>
+      </c>
+      <c r="B37">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>167108459</v>
+      </c>
+      <c r="B38">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>167108460</v>
+      </c>
+      <c r="B39">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>167108461</v>
+      </c>
+      <c r="B40">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>167625661</v>
+      </c>
+      <c r="B41">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>167625662</v>
+      </c>
+      <c r="B42">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>168620649</v>
+      </c>
+      <c r="B43">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>168620666</v>
+      </c>
+      <c r="B44">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>168620667</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>168620650</v>
+      </c>
+      <c r="B46">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>168620668</v>
+      </c>
+      <c r="B47">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>168620669</v>
+      </c>
+      <c r="B48">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>168620648</v>
+      </c>
+      <c r="B49">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>168620652</v>
+      </c>
+      <c r="B50">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>168620651</v>
+      </c>
+      <c r="B51">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>168620670</v>
+      </c>
+      <c r="B52">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>168620654</v>
+      </c>
+      <c r="B53">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>168620647</v>
+      </c>
+      <c r="B54">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>168620646</v>
+      </c>
+      <c r="B55">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>166115721</v>
+      </c>
+      <c r="B56">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>168620653</v>
+      </c>
+      <c r="B57">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>167782662</v>
+      </c>
+      <c r="B58">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>167782664</v>
+      </c>
+      <c r="B59">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>167782660</v>
+      </c>
+      <c r="B60">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>167729626</v>
+      </c>
+      <c r="B61">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>167729625</v>
+      </c>
+      <c r="B62">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>168605352</v>
+      </c>
+      <c r="B63">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>168605353</v>
+      </c>
+      <c r="B64">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>168605354</v>
+      </c>
+      <c r="B65">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>168605355</v>
+      </c>
+      <c r="B66">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>168605356</v>
+      </c>
+      <c r="B67">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>168605357</v>
+      </c>
+      <c r="B68">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>168605358</v>
+      </c>
+      <c r="B69">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>168671000</v>
+      </c>
+      <c r="B70">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>168671001</v>
+      </c>
+      <c r="B71">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>168671002</v>
+      </c>
+      <c r="B72">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>168671003</v>
+      </c>
+      <c r="B73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>168671004</v>
+      </c>
+      <c r="B74">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>168671005</v>
+      </c>
+      <c r="B75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>168669520</v>
+      </c>
+      <c r="B76">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>168669521</v>
+      </c>
+      <c r="B77">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>168669522</v>
+      </c>
+      <c r="B78">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>168669523</v>
+      </c>
+      <c r="B79">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>168669524</v>
+      </c>
+      <c r="B80">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>168669525</v>
+      </c>
+      <c r="B81">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>168666947</v>
+      </c>
+      <c r="B82">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>168666948</v>
+      </c>
+      <c r="B83">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>168666949</v>
+      </c>
+      <c r="B84">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>168666950</v>
+      </c>
+      <c r="B85">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>168666951</v>
+      </c>
+      <c r="B86">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>168666952</v>
+      </c>
+      <c r="B87">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>168666953</v>
+      </c>
+      <c r="B88">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>168737838</v>
+      </c>
+      <c r="B89">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>168737839</v>
+      </c>
+      <c r="B90">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>168737840</v>
+      </c>
+      <c r="B91">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>168737841</v>
+      </c>
+      <c r="B92">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>168737842</v>
+      </c>
+      <c r="B93">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>168737843</v>
+      </c>
+      <c r="B94">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>168737844</v>
+      </c>
+      <c r="B95">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>168667675</v>
+      </c>
+      <c r="B96">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>168667676</v>
+      </c>
+      <c r="B97">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>168667677</v>
+      </c>
+      <c r="B98">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>168667678</v>
+      </c>
+      <c r="B99">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>168667679</v>
+      </c>
+      <c r="B100">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>168667680</v>
+      </c>
+      <c r="B101">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>168667681</v>
+      </c>
+      <c r="B102">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>168667691</v>
+      </c>
+      <c r="B103">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>168667692</v>
+      </c>
+      <c r="B104">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>168667693</v>
+      </c>
+      <c r="B105">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>168667694</v>
+      </c>
+      <c r="B106">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>168667695</v>
+      </c>
+      <c r="B107">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>168667696</v>
+      </c>
+      <c r="B108">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>168667697</v>
+      </c>
+      <c r="B109">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>168661904</v>
+      </c>
+      <c r="B110">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>168661905</v>
+      </c>
+      <c r="B111">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>168661906</v>
+      </c>
+      <c r="B112">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>168661907</v>
+      </c>
+      <c r="B113">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>168661908</v>
+      </c>
+      <c r="B114">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>168661909</v>
+      </c>
+      <c r="B115">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>168662486</v>
+      </c>
+      <c r="B116">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>168662487</v>
+      </c>
+      <c r="B117">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>168662488</v>
+      </c>
+      <c r="B118">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>168662489</v>
+      </c>
+      <c r="B119">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>168662490</v>
+      </c>
+      <c r="B120">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>168662491</v>
+      </c>
+      <c r="B121">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>168719778</v>
+      </c>
+      <c r="B122">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>168719779</v>
+      </c>
+      <c r="B123">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>168719780</v>
+      </c>
+      <c r="B124">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>168719781</v>
+      </c>
+      <c r="B125">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>168719782</v>
+      </c>
+      <c r="B126">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>168719783</v>
+      </c>
+      <c r="B127">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>168609143</v>
+      </c>
+      <c r="B128">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>168609144</v>
+      </c>
+      <c r="B129">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>168609145</v>
+      </c>
+      <c r="B130">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>168609146</v>
+      </c>
+      <c r="B131">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>168609147</v>
+      </c>
+      <c r="B132">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>168609148</v>
+      </c>
+      <c r="B133">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>168609149</v>
+      </c>
+      <c r="B134">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>168609150</v>
+      </c>
+      <c r="B135">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>168609151</v>
+      </c>
+      <c r="B136">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>168609152</v>
+      </c>
+      <c r="B137">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>168609099</v>
+      </c>
+      <c r="B138">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>168609100</v>
+      </c>
+      <c r="B139">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>168609101</v>
+      </c>
+      <c r="B140">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>168609102</v>
+      </c>
+      <c r="B141">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>168609103</v>
+      </c>
+      <c r="B142">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>168609104</v>
+      </c>
+      <c r="B143">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>168609105</v>
+      </c>
+      <c r="B144">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>168609106</v>
+      </c>
+      <c r="B145">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>168609107</v>
+      </c>
+      <c r="B146">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>168609108</v>
+      </c>
+      <c r="B147">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>168609857</v>
+      </c>
+      <c r="B148">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>168609858</v>
+      </c>
+      <c r="B149">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>168609859</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>168609860</v>
+      </c>
+      <c r="B151">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>168609861</v>
+      </c>
+      <c r="B152">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>168609862</v>
+      </c>
+      <c r="B153">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>168609863</v>
+      </c>
+      <c r="B154">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>168609864</v>
+      </c>
+      <c r="B155">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>168609865</v>
+      </c>
+      <c r="B156">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>168609866</v>
+      </c>
+      <c r="B157">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>168865322</v>
+      </c>
+      <c r="B158">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>168865323</v>
+      </c>
+      <c r="B159">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>168865324</v>
+      </c>
+      <c r="B160">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>168865325</v>
+      </c>
+      <c r="B161">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>168865326</v>
+      </c>
+      <c r="B162">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>168865327</v>
+      </c>
+      <c r="B163">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>168865328</v>
+      </c>
+      <c r="B164">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>168865329</v>
+      </c>
+      <c r="B165">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>168865330</v>
+      </c>
+      <c r="B166">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>168865331</v>
+      </c>
+      <c r="B167">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>168741774</v>
+      </c>
+      <c r="B168">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167289694</v>
+      </c>
+      <c r="B169">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168129615</v>
+      </c>
+      <c r="B170">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>168129616</v>
+      </c>
+      <c r="B171">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>168129617</v>
+      </c>
+      <c r="B172">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>168932459</v>
+      </c>
+      <c r="B173">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>168932460</v>
+      </c>
+      <c r="B174">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>168933010</v>
+      </c>
+      <c r="B175">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>167084033</v>
+      </c>
+      <c r="B176">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>167716660</v>
+      </c>
+      <c r="B177">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/PRV File.xlsx
+++ b/PRV File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\290807\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{480BC312-702F-4D93-8292-51296CE8EAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C69835A-23ED-4D17-A726-533F9423533E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{213F64BB-295B-460C-B1A4-7BBCBA9C2E35}"/>
   </bookViews>
@@ -17448,12 +17448,12 @@
   <dimension ref="A1:B5678"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
